--- a/temple_project/people.xlsx
+++ b/temple_project/people.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\YuntechProjects\testing-9d9a144766470935a368eb84e13128f691fc281d\temple_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asd19\Downloads\廟\testing\temple_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957D7E80-9942-4DD5-BB34-FED9A8E81771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2787D7-FC8D-495F-8DF7-98FA849E3DDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11" sheetId="1" r:id="rId1"/>
@@ -1139,20 +1139,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
